--- a/biology/Médecine/Fonds_mondial_de_recherche_contre_le_cancer/Fonds_mondial_de_recherche_contre_le_cancer.xlsx
+++ b/biology/Médecine/Fonds_mondial_de_recherche_contre_le_cancer/Fonds_mondial_de_recherche_contre_le_cancer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Fonds mondial de recherche contre le cancer (FMRC) est une association loi de 1901[1] consacrée à la prévention du cancer par la promotion d’une alimentation équilibrée, la pratique régulière d’une activité physique et le maintien d’un poids corporel optimal.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fonds mondial de recherche contre le cancer (FMRC) est une association loi de 1901 consacrée à la prévention du cancer par la promotion d’une alimentation équilibrée, la pratique régulière d’une activité physique et le maintien d’un poids corporel optimal.
 Le FMRC fait partie du réseau mondial du World Cancer Research Fund (WCRF) qui est composé également des associations suivantes :
 l’American Institute for Cancer Research (AICR) ;
 le World Cancer Research Fund United-Kingdom (WCRF UK) ;
@@ -518,7 +530,9 @@
           <t>Actions récentes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2007, le réseau du WCRF a publié le rapport Alimentation, Nutrition, Activité Physique et Prévention du Cancer : une Perspective Mondiale (Food, Nutrition, Physical Activity and the Prevention of Cancer ; a Global Perspective). Pour ce faire, un panel international de vingt-et-un scientifiques a évalué les résultats de milliers d’études menées ces cinquante dernières années dans le monde. Ce rapport représente l’analyse la plus complète jamais publiée et a changé le paysage de la recherche en concentrant les efforts de la communauté scientifique globale. Selon le WCRF, 30 à 40 % des cancers seraient imputables à l'alimentation. Les recommandations ci-dessous sont issues de ce rapport.
 Les recommandations alimentation et santé du FMRC pour la prévention du cancer
